--- a/output/StructureDefinition-cgm-observation.xlsx
+++ b/output/StructureDefinition-cgm-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1891,7 +1891,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/cgm-metrics-cs"/&gt;
     &lt;code value="tbr-l2"/&gt;
-    &lt;display value="Time Below Range - Level 2"/&gt;
+    &lt;display value="Time Below Range Level 2"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2017,7 +2017,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/cgm-metrics-cs"/&gt;
     &lt;code value="tar-l2"/&gt;
-    &lt;display value="Time Above Range - Level 2"/&gt;
+    &lt;display value="Time Above Range Level 2"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2140,7 +2140,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/cgm-metrics-cs"/&gt;
     &lt;code value="sd"/&gt;
-    &lt;display value="Glucose Standard Deviation"/&gt;
+    &lt;display value="Standard Deviation"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2480,7 +2480,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/cgm-metrics-cs"/&gt;
     &lt;code value="range-low"/&gt;
-    &lt;display value="Target Range Lower Bound"/&gt;
+    &lt;display value="Target Range Lower"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2543,7 +2543,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/cgm-metrics-cs"/&gt;
     &lt;code value="range-high"/&gt;
-    &lt;display value="Target Range Upper Bound"/&gt;
+    &lt;display value="Target Range Upper"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2645,7 +2645,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/cgm-metrics-cs"/&gt;
     &lt;code value="site"/&gt;
-    &lt;display value="Sensor Insertion Site"/&gt;
+    &lt;display value="Insertion Site"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2687,7 +2687,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/cgm-metrics-cs"/&gt;
     &lt;code value="sensor-days"/&gt;
-    &lt;display value="Days Since Sensor Insertion"/&gt;
+    &lt;display value="Sensor Days"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
